--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478647</v>
+        <v>2727799.843405363</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>168.8659576635495</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>36.4088700632275</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.1416784925589</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9612553036279</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1190,10 +1190,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>130.0582630596411</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>27.58650141061269</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079029536</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2526.577416610597</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2307.942749582659</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2054.180964220751</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1723.11807687718</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1723.11807687718</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.1113712492</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.148854308789</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.883155702038</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>669.094903103794</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>258.1089983141864</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>244.1855942527773</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.1113712492</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.1113712492</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.1113712492</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434221</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202536</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>569.4228831407834</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1122.236141386983</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1753.953952370294</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.4306457471</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285933</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031084</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2097.285543142558</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>2097.285543142558</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.285543142558</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="Y8" t="n">
-        <v>2097.285543142558</v>
+        <v>1544.8259834174</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>81.80813476037727</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,16 +5176,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908939</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6917,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,19 +7786,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>246.744290638475</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>366.5683748125719</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575615</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="15">
@@ -26314,40 +26314,40 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520044</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682747</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682769</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.53656668276</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495607</v>
+        <v>-225915.9568495608</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649839</v>
+        <v>364051.9223649838</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.1162711891</v>
+        <v>208248.1162711889</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193912</v>
+        <v>-232170.2159448268</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.2133614151</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.2133614151</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614153</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.2133614154</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688222</v>
+        <v>362459.2562433865</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.2133614148</v>
+        <v>538882.4754359798</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614154</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533566</v>
+        <v>414673.9647279204</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.2133614151</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.2133614152</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359793</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.549755145422012</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82750184132351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>287.5139027011297</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874015</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.31163646737969</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>197.6939954104938</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>152.2454787713246</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>330.1414164713966</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>547.878815574799</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
